--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/GEORGIA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/GEORGIA_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1398"/>
+  <dimension ref="A1:D1392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C28">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C31">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C40">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C44">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C69">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C70">
@@ -1330,7 +1330,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C73">
@@ -1382,7 +1382,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C77">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C84">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C85">
@@ -1519,7 +1519,7 @@
         <v>13</v>
       </c>
       <c r="D87">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="88">
@@ -1868,7 +1868,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C114">
@@ -1972,7 +1972,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C122">
@@ -2224,7 +2224,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C141">
@@ -2372,7 +2372,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2429,7 +2429,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C156">
@@ -2759,7 +2759,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C181">
@@ -2798,7 +2798,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C184">
@@ -2837,7 +2837,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C187">
@@ -2850,7 +2850,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C188">
@@ -2928,12 +2928,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C194">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C197">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C198">
@@ -3018,7 +3018,7 @@
         <v>13</v>
       </c>
       <c r="D200">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="201">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C205">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C214">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C220">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C226">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C227">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C240">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C248">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C250">
@@ -3687,7 +3687,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C252">
@@ -3707,7 +3707,7 @@
         <v>13</v>
       </c>
       <c r="D253">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="254">
@@ -3759,7 +3759,7 @@
         <v>13</v>
       </c>
       <c r="D257">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="258">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C260">
@@ -3882,7 +3882,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C267">
@@ -3960,7 +3960,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C273">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C274">
@@ -3986,7 +3986,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C275">
@@ -3999,7 +3999,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C276">
@@ -4147,7 +4147,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C287">
@@ -4160,7 +4160,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C288">
@@ -4264,7 +4264,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C296">
@@ -4316,7 +4316,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C300">
@@ -4420,7 +4420,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C308">
@@ -4472,7 +4472,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C312">
@@ -4498,7 +4498,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C314">
@@ -4524,7 +4524,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C316">
@@ -4537,7 +4537,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C317">
@@ -4563,7 +4563,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C319">
@@ -4628,7 +4628,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C324">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C330">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C332">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C335">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C337">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C338">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C341">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C342">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C343">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C344">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C349">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C350">
@@ -5017,13 +5017,13 @@
         <v>13</v>
       </c>
       <c r="D353">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C354">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C355">
@@ -5056,7 +5056,7 @@
         <v>13</v>
       </c>
       <c r="D356">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="357">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C360">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C361">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C363">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C365">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C368">
@@ -5374,14 +5374,14 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C381">
         <v>13</v>
       </c>
       <c r="D381">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="382">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C383">
@@ -5426,7 +5426,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C385">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C387">
@@ -5491,7 +5491,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C390">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C391">
@@ -5607,7 +5607,7 @@
         <v>13</v>
       </c>
       <c r="D398">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="399">
@@ -5626,7 +5626,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C400">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C406">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C412">
@@ -5834,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C416">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C420">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C423">
@@ -5990,7 +5990,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C428">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C429">
@@ -6016,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C430">
@@ -6029,14 +6029,14 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C431">
         <v>13</v>
       </c>
       <c r="D431">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="432">
@@ -6055,7 +6055,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C433">
@@ -6068,7 +6068,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C434">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C435">
@@ -6120,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C438">
@@ -6185,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C443">
@@ -6198,7 +6198,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C444">
@@ -6231,7 +6231,7 @@
         <v>13</v>
       </c>
       <c r="D446">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="447">
@@ -6250,7 +6250,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C448">
@@ -6276,7 +6276,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C450">
@@ -6289,7 +6289,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C451">
@@ -6302,7 +6302,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C452">
@@ -6393,7 +6393,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C459">
@@ -6406,7 +6406,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C460">
@@ -6458,7 +6458,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C464">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C469">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C470">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C473">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C475">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C487">
@@ -6795,7 +6795,7 @@
         <v>135</v>
       </c>
       <c r="D489">
-        <v>0.009538613721472479</v>
+        <v>0.00953861372147248</v>
       </c>
     </row>
     <row r="490">
@@ -6827,7 +6827,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C492">
@@ -6840,7 +6840,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C493">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C494">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C497">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C502">
@@ -7048,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C509">
@@ -7100,7 +7100,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C513">
@@ -7113,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C514">
@@ -7139,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C516">
@@ -7152,7 +7152,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C517">
@@ -7165,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C518">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C520">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C521">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C524">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C525">
@@ -7282,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C527">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C529">
@@ -7347,7 +7347,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C532">
@@ -7360,7 +7360,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C533">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C542">
@@ -7490,7 +7490,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C543">
@@ -7503,7 +7503,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C544">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C545">
@@ -7568,7 +7568,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C549">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C551">
@@ -7607,7 +7607,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C552">
@@ -7911,7 +7911,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C575">
@@ -7937,7 +7937,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C577">
@@ -8717,7 +8717,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C637">
@@ -9021,7 +9021,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C660">
@@ -9132,7 +9132,7 @@
         <v>13</v>
       </c>
       <c r="D668">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="669">
@@ -9151,7 +9151,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C670">
@@ -9216,7 +9216,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C675">
@@ -9229,7 +9229,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C676">
@@ -9307,7 +9307,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C682">
@@ -9338,7 +9338,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C684">
@@ -9364,7 +9364,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C686">
@@ -9442,7 +9442,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C692">
@@ -9668,7 +9668,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C709">
@@ -9681,7 +9681,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C710">
@@ -9746,7 +9746,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C715">
@@ -9842,14 +9842,14 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C722">
         <v>13</v>
       </c>
       <c r="D722">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="723">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C726">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C728">
@@ -9933,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C729">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C731">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C733">
@@ -9998,7 +9998,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C734">
@@ -10011,7 +10011,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C735">
@@ -10024,7 +10024,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C736">
@@ -10037,20 +10037,20 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C737">
         <v>13</v>
       </c>
       <c r="D737">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C738">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C744">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C746">
@@ -10180,7 +10180,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C748">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C749">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C750">
@@ -10232,7 +10232,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C752">
@@ -10291,7 +10291,7 @@
         <v>13</v>
       </c>
       <c r="D756">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="757">
@@ -10479,7 +10479,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C771">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C784">
@@ -11038,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C814">
@@ -11103,7 +11103,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C819">
@@ -11129,7 +11129,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C821">
@@ -11285,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C833">
@@ -11324,7 +11324,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C836">
@@ -11480,7 +11480,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C848">
@@ -12208,7 +12208,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C904">
@@ -12312,7 +12312,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C912">
@@ -12338,7 +12338,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C914">
@@ -12351,7 +12351,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C915">
@@ -12364,7 +12364,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C916">
@@ -12377,7 +12377,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C917">
@@ -12390,7 +12390,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C918">
@@ -12403,7 +12403,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C919">
@@ -12429,7 +12429,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C921">
@@ -12442,7 +12442,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C922">
@@ -12455,7 +12455,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C923">
@@ -12468,7 +12468,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C924">
@@ -12694,7 +12694,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C941">
@@ -12863,7 +12863,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C954">
@@ -12915,7 +12915,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C958">
@@ -13032,7 +13032,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C967">
@@ -13045,7 +13045,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C968">
@@ -13084,7 +13084,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C971">
@@ -13136,7 +13136,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C975">
@@ -13214,7 +13214,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C981">
@@ -13279,7 +13279,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C986">
@@ -13461,7 +13461,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1000">
@@ -13487,7 +13487,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1002">
@@ -13500,7 +13500,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1003">
@@ -13604,7 +13604,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1011">
@@ -13617,7 +13617,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1012">
@@ -13643,7 +13643,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1014">
@@ -13656,7 +13656,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1015">
@@ -13695,7 +13695,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1018">
@@ -13786,7 +13786,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1025">
@@ -13986,7 +13986,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1040">
@@ -14012,7 +14012,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1042">
@@ -14058,13 +14058,13 @@
         <v>13</v>
       </c>
       <c r="D1045">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1046">
@@ -14077,7 +14077,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1047">
@@ -14116,7 +14116,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1050">
@@ -14155,7 +14155,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1053">
@@ -14308,7 +14308,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1064">
@@ -14367,13 +14367,13 @@
         <v>13</v>
       </c>
       <c r="D1068">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1069">
@@ -14399,7 +14399,7 @@
     <row r="1071">
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1071">
@@ -14503,7 +14503,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1079">
@@ -14568,7 +14568,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1084">
@@ -14646,7 +14646,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1090">
@@ -14672,7 +14672,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1092">
@@ -14763,7 +14763,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1099">
@@ -14815,7 +14815,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1103">
@@ -14828,7 +14828,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1104">
@@ -14841,7 +14841,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1105">
@@ -14854,7 +14854,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1106">
@@ -14867,7 +14867,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1107">
@@ -14880,7 +14880,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1108">
@@ -15292,7 +15292,7 @@
         <v>13</v>
       </c>
       <c r="D1138">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="1139">
@@ -15350,7 +15350,7 @@
     <row r="1143">
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1143">
@@ -15758,7 +15758,7 @@
     <row r="1174">
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1174">
@@ -15817,7 +15817,7 @@
         <v>13</v>
       </c>
       <c r="D1178">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="1179">
@@ -15945,7 +15945,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1188">
@@ -15971,7 +15971,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1190">
@@ -15984,7 +15984,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1191">
@@ -16036,7 +16036,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1195">
@@ -16075,7 +16075,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1198">
@@ -16275,7 +16275,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1213">
@@ -16314,7 +16314,7 @@
     <row r="1216">
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1216">
@@ -16418,7 +16418,7 @@
     <row r="1224">
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1224">
@@ -16672,7 +16672,7 @@
         <v>13</v>
       </c>
       <c r="D1243">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="1244">
@@ -16704,7 +16704,7 @@
     <row r="1246">
       <c r="B1246" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1246">
@@ -16717,7 +16717,7 @@
     <row r="1247">
       <c r="B1247" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1247">
@@ -16912,7 +16912,7 @@
     <row r="1262">
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1262">
@@ -16925,7 +16925,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1263">
@@ -16964,7 +16964,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1266">
@@ -16977,7 +16977,7 @@
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1267">
@@ -16990,7 +16990,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1268">
@@ -17094,7 +17094,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1276">
@@ -17172,7 +17172,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1282">
@@ -17211,7 +17211,7 @@
     <row r="1285">
       <c r="B1285" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1285">
@@ -17263,7 +17263,7 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1289">
@@ -17354,7 +17354,7 @@
     <row r="1296">
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1296">
@@ -17406,7 +17406,7 @@
     <row r="1300">
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1300">
@@ -17419,7 +17419,7 @@
     <row r="1301">
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1301">
@@ -17458,7 +17458,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1304">
@@ -17549,7 +17549,7 @@
     <row r="1311">
       <c r="B1311" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1311">
@@ -17588,7 +17588,7 @@
     <row r="1314">
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1314">
@@ -17660,7 +17660,7 @@
         <v>13</v>
       </c>
       <c r="D1319">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="1320">
@@ -17965,7 +17965,7 @@
     <row r="1343">
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1343">
@@ -18056,7 +18056,7 @@
     <row r="1350">
       <c r="B1350" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1350">
@@ -18170,7 +18170,7 @@
     <row r="1358">
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1358">
@@ -18229,7 +18229,7 @@
         <v>13</v>
       </c>
       <c r="D1362">
-        <v>0.0009185331731788313</v>
+        <v>0.0009185331731788312</v>
       </c>
     </row>
     <row r="1363">
@@ -18365,7 +18365,7 @@
     <row r="1373">
       <c r="B1373" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1373">
@@ -18378,7 +18378,7 @@
     <row r="1374">
       <c r="B1374" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1374">
@@ -18495,7 +18495,7 @@
     <row r="1383">
       <c r="B1383" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1383">
@@ -18508,7 +18508,7 @@
     <row r="1384">
       <c r="B1384" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1384">
@@ -18620,41 +18620,6 @@
       </c>
       <c r="D1392">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1394">
-      <c r="A1394" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="1395">
-      <c r="A1395" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1396">
-      <c r="A1396" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1397">
-      <c r="A1397" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1398">
-      <c r="A1398" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
